--- a/AAII_Financials/Yearly/KIROY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KIROY_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3988100</v>
+        <v>3828900</v>
       </c>
       <c r="E8" s="3">
-        <v>5499700</v>
+        <v>5280200</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>191900</v>
+        <v>184300</v>
       </c>
       <c r="E9" s="3">
-        <v>428400</v>
+        <v>411300</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -766,10 +766,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3796200</v>
+        <v>3644700</v>
       </c>
       <c r="E10" s="3">
-        <v>5071300</v>
+        <v>4868900</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -860,10 +860,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>295400</v>
+        <v>283600</v>
       </c>
       <c r="E14" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -887,10 +887,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>270400</v>
+        <v>259600</v>
       </c>
       <c r="E15" s="3">
-        <v>272000</v>
+        <v>261200</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2540100</v>
+        <v>2438700</v>
       </c>
       <c r="E17" s="3">
-        <v>2294000</v>
+        <v>2202400</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1448000</v>
+        <v>1390200</v>
       </c>
       <c r="E18" s="3">
-        <v>3205700</v>
+        <v>3077800</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -991,10 +991,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15700</v>
+        <v>15100</v>
       </c>
       <c r="E20" s="3">
-        <v>36000</v>
+        <v>34600</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1463800</v>
+        <v>1405300</v>
       </c>
       <c r="E21" s="3">
-        <v>3241700</v>
+        <v>3112400</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>21500</v>
+        <v>20700</v>
       </c>
       <c r="E22" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1442200</v>
+        <v>1384600</v>
       </c>
       <c r="E23" s="3">
-        <v>3232300</v>
+        <v>3103300</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1099,10 +1099,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>383400</v>
+        <v>368100</v>
       </c>
       <c r="E24" s="3">
-        <v>880500</v>
+        <v>845400</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1058800</v>
+        <v>1016600</v>
       </c>
       <c r="E26" s="3">
-        <v>2351800</v>
+        <v>2257900</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>806300</v>
+        <v>774100</v>
       </c>
       <c r="E27" s="3">
-        <v>1792000</v>
+        <v>1720500</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1315,10 +1315,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15700</v>
+        <v>-15100</v>
       </c>
       <c r="E32" s="3">
-        <v>-36000</v>
+        <v>-34600</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>806300</v>
+        <v>774100</v>
       </c>
       <c r="E33" s="3">
-        <v>1792000</v>
+        <v>1720500</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>806300</v>
+        <v>774100</v>
       </c>
       <c r="E35" s="3">
-        <v>1792000</v>
+        <v>1720500</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,7 +1481,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>884800</v>
+        <v>849400</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1535,7 +1535,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>304900</v>
+        <v>292700</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1562,7 +1562,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>459500</v>
+        <v>441100</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1589,7 +1589,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14000</v>
+        <v>13400</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -1616,7 +1616,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1663100</v>
+        <v>1596700</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
@@ -1643,7 +1643,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>48700</v>
+        <v>46800</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1670,7 +1670,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2334200</v>
+        <v>2241000</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1778,7 +1778,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>406900</v>
+        <v>390600</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1832,7 +1832,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4452800</v>
+        <v>4275100</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -1885,7 +1885,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>327400</v>
+        <v>314300</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -1912,7 +1912,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>373800</v>
+        <v>358800</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -1939,7 +1939,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>131500</v>
+        <v>126200</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -1966,7 +1966,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>832600</v>
+        <v>799400</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -1993,7 +1993,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>712600</v>
+        <v>684200</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2128,7 +2128,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2241700</v>
+        <v>2152200</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>3</v>
@@ -2276,7 +2276,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2079900</v>
+        <v>1996900</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2384,7 +2384,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2211100</v>
+        <v>2122900</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>806300</v>
+        <v>774100</v>
       </c>
       <c r="E81" s="3">
-        <v>1792000</v>
+        <v>1720500</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2672,7 +2672,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1497100</v>
+        <v>1437400</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>3</v>
@@ -2712,7 +2712,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-597100</v>
+        <v>-573300</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
@@ -2793,7 +2793,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-595900</v>
+        <v>-572100</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
@@ -2833,7 +2833,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1027100</v>
+        <v>-986100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1005600</v>
+        <v>-965500</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
@@ -2968,7 +2968,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>23500</v>
+        <v>22500</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>3</v>
@@ -2995,7 +2995,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-80900</v>
+        <v>-77600</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/KIROY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KIROY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
   <si>
     <t>KIROY</t>
   </si>
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3828900</v>
+        <v>3923000</v>
       </c>
       <c r="E8" s="3">
-        <v>5280200</v>
+        <v>5409900</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>184300</v>
+        <v>188800</v>
       </c>
       <c r="E9" s="3">
-        <v>411300</v>
+        <v>421400</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -766,10 +766,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3644700</v>
+        <v>3734200</v>
       </c>
       <c r="E10" s="3">
-        <v>4868900</v>
+        <v>4988500</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -860,10 +860,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>283600</v>
+        <v>290600</v>
       </c>
       <c r="E14" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -887,10 +887,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>259600</v>
+        <v>266000</v>
       </c>
       <c r="E15" s="3">
-        <v>261200</v>
+        <v>267600</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2438700</v>
+        <v>2498600</v>
       </c>
       <c r="E17" s="3">
-        <v>2202400</v>
+        <v>2256500</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1390200</v>
+        <v>1424400</v>
       </c>
       <c r="E18" s="3">
-        <v>3077800</v>
+        <v>3153300</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -991,10 +991,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15100</v>
+        <v>15500</v>
       </c>
       <c r="E20" s="3">
-        <v>34600</v>
+        <v>35500</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1405300</v>
+        <v>1439800</v>
       </c>
       <c r="E21" s="3">
-        <v>3112400</v>
+        <v>3188800</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20700</v>
+        <v>21200</v>
       </c>
       <c r="E22" s="3">
-        <v>9100</v>
+        <v>9300</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1384600</v>
+        <v>1418600</v>
       </c>
       <c r="E23" s="3">
-        <v>3103300</v>
+        <v>3179500</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1099,10 +1099,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>368100</v>
+        <v>377100</v>
       </c>
       <c r="E24" s="3">
-        <v>845400</v>
+        <v>866100</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1016600</v>
+        <v>1041500</v>
       </c>
       <c r="E26" s="3">
-        <v>2257900</v>
+        <v>2313400</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>774100</v>
+        <v>793200</v>
       </c>
       <c r="E27" s="3">
-        <v>1720500</v>
+        <v>1762800</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1315,10 +1315,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15100</v>
+        <v>-15500</v>
       </c>
       <c r="E32" s="3">
-        <v>-34600</v>
+        <v>-35500</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>774100</v>
+        <v>793200</v>
       </c>
       <c r="E33" s="3">
-        <v>1720500</v>
+        <v>1762800</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>774100</v>
+        <v>793200</v>
       </c>
       <c r="E35" s="3">
-        <v>1720500</v>
+        <v>1762800</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,7 +1481,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>849400</v>
+        <v>870300</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1535,7 +1535,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>292700</v>
+        <v>299900</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1562,7 +1562,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>441100</v>
+        <v>452000</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1589,7 +1589,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13400</v>
+        <v>13800</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -1616,7 +1616,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1596700</v>
+        <v>1635900</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
@@ -1643,7 +1643,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>46800</v>
+        <v>47900</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1670,7 +1670,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2241000</v>
+        <v>2296100</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1778,7 +1778,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>390600</v>
+        <v>400200</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1832,7 +1832,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4275100</v>
+        <v>4380100</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -1885,7 +1885,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>314300</v>
+        <v>322000</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -1912,7 +1912,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>358800</v>
+        <v>367600</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -1939,7 +1939,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>126200</v>
+        <v>129300</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -1966,7 +1966,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>799400</v>
+        <v>819000</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -1993,7 +1993,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>684200</v>
+        <v>701000</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2128,7 +2128,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2152200</v>
+        <v>2205100</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>3</v>
@@ -2276,7 +2276,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1996900</v>
+        <v>2045900</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2384,7 +2384,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2122900</v>
+        <v>2175000</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>774100</v>
+        <v>793200</v>
       </c>
       <c r="E81" s="3">
-        <v>1720500</v>
+        <v>1762800</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1437400</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
+        <v>1472600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2593500</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2712,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-573300</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+        <v>-587300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-331300</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2793,10 +2793,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-572100</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+        <v>-586100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-332200</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2833,10 +2833,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-986100</v>
+        <v>-1010400</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1945700</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -2941,10 +2941,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-965500</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+        <v>-989200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2573600</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2968,10 +2968,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>22500</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+        <v>23100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>58800</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-77600</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
+        <v>-79500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-253400</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/KIROY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KIROY_YR_FIN.xlsx
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3923000</v>
+        <v>4033300</v>
       </c>
       <c r="E8" s="3">
-        <v>5409900</v>
+        <v>5562000</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>188800</v>
+        <v>194100</v>
       </c>
       <c r="E9" s="3">
-        <v>421400</v>
+        <v>433200</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -766,10 +766,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3734200</v>
+        <v>3839200</v>
       </c>
       <c r="E10" s="3">
-        <v>4988500</v>
+        <v>5128700</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -860,10 +860,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>290600</v>
+        <v>298800</v>
       </c>
       <c r="E14" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -887,10 +887,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>266000</v>
+        <v>273500</v>
       </c>
       <c r="E15" s="3">
-        <v>267600</v>
+        <v>275100</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2498600</v>
+        <v>2568800</v>
       </c>
       <c r="E17" s="3">
-        <v>2256500</v>
+        <v>2320000</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1424400</v>
+        <v>1464400</v>
       </c>
       <c r="E18" s="3">
-        <v>3153300</v>
+        <v>3242000</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -991,10 +991,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15500</v>
+        <v>15900</v>
       </c>
       <c r="E20" s="3">
-        <v>35500</v>
+        <v>36400</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1439800</v>
+        <v>1480300</v>
       </c>
       <c r="E21" s="3">
-        <v>3188800</v>
+        <v>3278400</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>21200</v>
+        <v>21800</v>
       </c>
       <c r="E22" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1418600</v>
+        <v>1458500</v>
       </c>
       <c r="E23" s="3">
-        <v>3179500</v>
+        <v>3268900</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1099,10 +1099,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>377100</v>
+        <v>387700</v>
       </c>
       <c r="E24" s="3">
-        <v>866100</v>
+        <v>890500</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1041500</v>
+        <v>1070800</v>
       </c>
       <c r="E26" s="3">
-        <v>2313400</v>
+        <v>2378400</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>793200</v>
+        <v>815500</v>
       </c>
       <c r="E27" s="3">
-        <v>1762800</v>
+        <v>1812300</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1315,10 +1315,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15500</v>
+        <v>-15900</v>
       </c>
       <c r="E32" s="3">
-        <v>-35500</v>
+        <v>-36400</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>793200</v>
+        <v>815500</v>
       </c>
       <c r="E33" s="3">
-        <v>1762800</v>
+        <v>1812300</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>793200</v>
+        <v>815500</v>
       </c>
       <c r="E35" s="3">
-        <v>1762800</v>
+        <v>1812300</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,7 +1481,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>870300</v>
+        <v>894800</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1535,7 +1535,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>299900</v>
+        <v>308300</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1562,7 +1562,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>452000</v>
+        <v>464700</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1589,7 +1589,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13800</v>
+        <v>14200</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -1616,7 +1616,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1635900</v>
+        <v>1681900</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
@@ -1643,7 +1643,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>47900</v>
+        <v>49200</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1670,7 +1670,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2296100</v>
+        <v>2360600</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1778,7 +1778,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400200</v>
+        <v>411500</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1832,7 +1832,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4380100</v>
+        <v>4503300</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -1885,7 +1885,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>322000</v>
+        <v>331100</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -1912,7 +1912,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>367600</v>
+        <v>378000</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -1939,7 +1939,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>129300</v>
+        <v>133000</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -1966,7 +1966,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>819000</v>
+        <v>842000</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -1993,7 +1993,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>701000</v>
+        <v>720700</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2128,7 +2128,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2205100</v>
+        <v>2267100</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>3</v>
@@ -2276,7 +2276,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2045900</v>
+        <v>2103400</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2384,7 +2384,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2175000</v>
+        <v>2236200</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>793200</v>
+        <v>815500</v>
       </c>
       <c r="E81" s="3">
-        <v>1762800</v>
+        <v>1812300</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1472600</v>
+        <v>1514100</v>
       </c>
       <c r="E89" s="3">
-        <v>2593500</v>
+        <v>2666500</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2712,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-587300</v>
+        <v>-603900</v>
       </c>
       <c r="E91" s="3">
-        <v>-331300</v>
+        <v>-340700</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2793,10 +2793,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-586100</v>
+        <v>-602600</v>
       </c>
       <c r="E94" s="3">
-        <v>-332200</v>
+        <v>-341500</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2833,10 +2833,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1010400</v>
+        <v>-1038800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1945700</v>
+        <v>-2000400</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -2941,10 +2941,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-989200</v>
+        <v>-1017000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2573600</v>
+        <v>-2645900</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2968,10 +2968,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>23100</v>
+        <v>23800</v>
       </c>
       <c r="E101" s="3">
-        <v>58800</v>
+        <v>60500</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-79500</v>
+        <v>-81800</v>
       </c>
       <c r="E102" s="3">
-        <v>-253400</v>
+        <v>-260500</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
